--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agt-Mas1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agt-Mas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Agt</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H2">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I2">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J2">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7936323333333334</v>
+        <v>1.038072333333333</v>
       </c>
       <c r="N2">
-        <v>2.380897</v>
+        <v>3.114217</v>
       </c>
       <c r="O2">
-        <v>0.1780604748250411</v>
+        <v>0.2126920062131243</v>
       </c>
       <c r="P2">
-        <v>0.1780604748250411</v>
+        <v>0.2126920062131243</v>
       </c>
       <c r="Q2">
-        <v>0.04500953506444445</v>
+        <v>0.06025629268477777</v>
       </c>
       <c r="R2">
-        <v>0.4050858155800001</v>
+        <v>0.542306634163</v>
       </c>
       <c r="S2">
-        <v>0.005319835762593936</v>
+        <v>0.005871357489639711</v>
       </c>
       <c r="T2">
-        <v>0.005319835762593936</v>
+        <v>0.005871357489639711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H3">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I3">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J3">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>9.19219</v>
       </c>
       <c r="O3">
-        <v>0.6874575910180047</v>
+        <v>0.6277999678867011</v>
       </c>
       <c r="P3">
-        <v>0.6874575910180047</v>
+        <v>0.6277999678867011</v>
       </c>
       <c r="Q3">
-        <v>0.1737732451777778</v>
+        <v>0.1778576416011111</v>
       </c>
       <c r="R3">
-        <v>1.5639592066</v>
+        <v>1.60071877441</v>
       </c>
       <c r="S3">
-        <v>0.02053887299558039</v>
+        <v>0.01733040234598015</v>
       </c>
       <c r="T3">
-        <v>0.02053887299558039</v>
+        <v>0.01733040234598015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H4">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I4">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J4">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5993986666666667</v>
+        <v>0.7772290000000001</v>
       </c>
       <c r="N4">
-        <v>1.798196</v>
+        <v>2.331687</v>
       </c>
       <c r="O4">
-        <v>0.1344819341569541</v>
+        <v>0.1592474724436547</v>
       </c>
       <c r="P4">
-        <v>0.1344819341569541</v>
+        <v>0.1592474724436547</v>
       </c>
       <c r="Q4">
-        <v>0.03399389638222223</v>
+        <v>0.04511529361033333</v>
       </c>
       <c r="R4">
-        <v>0.3059450674400001</v>
+        <v>0.406037642493</v>
       </c>
       <c r="S4">
-        <v>0.004017858558750489</v>
+        <v>0.004396022477221579</v>
       </c>
       <c r="T4">
-        <v>0.004017858558750489</v>
+        <v>0.004396022477221578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.761113666666667</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H5">
-        <v>5.283341</v>
+        <v>0.174139</v>
       </c>
       <c r="I5">
-        <v>0.9277541615420762</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J5">
-        <v>0.9277541615420761</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7936323333333334</v>
+        <v>0.001271666666666667</v>
       </c>
       <c r="N5">
-        <v>2.380897</v>
+        <v>0.003815</v>
       </c>
       <c r="O5">
-        <v>0.1780604748250411</v>
+        <v>0.0002605534565199114</v>
       </c>
       <c r="P5">
-        <v>0.1780604748250411</v>
+        <v>0.0002605534565199114</v>
       </c>
       <c r="Q5">
-        <v>1.397676748541889</v>
+        <v>7.381558722222222E-05</v>
       </c>
       <c r="R5">
-        <v>12.579090736877</v>
+        <v>0.000664340285</v>
       </c>
       <c r="S5">
-        <v>0.16519634652509</v>
+        <v>7.192571623292627E-06</v>
       </c>
       <c r="T5">
-        <v>0.1651963465250899</v>
+        <v>7.192571623292627E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>5.283341</v>
       </c>
       <c r="I6">
-        <v>0.9277541615420762</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J6">
-        <v>0.9277541615420761</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.064063333333333</v>
+        <v>1.038072333333333</v>
       </c>
       <c r="N6">
-        <v>9.19219</v>
+        <v>3.114217</v>
       </c>
       <c r="O6">
-        <v>0.6874575910180047</v>
+        <v>0.2126920062131243</v>
       </c>
       <c r="P6">
-        <v>0.6874575910180047</v>
+        <v>0.2126920062131243</v>
       </c>
       <c r="Q6">
-        <v>5.396163811865556</v>
+        <v>1.828163373221889</v>
       </c>
       <c r="R6">
-        <v>48.56547430679</v>
+        <v>16.453470358997</v>
       </c>
       <c r="S6">
-        <v>0.6377916409506446</v>
+        <v>0.1781357636754005</v>
       </c>
       <c r="T6">
-        <v>0.6377916409506444</v>
+        <v>0.1781357636754005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>5.283341</v>
       </c>
       <c r="I7">
-        <v>0.9277541615420762</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J7">
-        <v>0.9277541615420761</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5993986666666667</v>
+        <v>3.064063333333333</v>
       </c>
       <c r="N7">
-        <v>1.798196</v>
+        <v>9.19219</v>
       </c>
       <c r="O7">
-        <v>0.1344819341569541</v>
+        <v>0.6277999678867011</v>
       </c>
       <c r="P7">
-        <v>0.1344819341569541</v>
+        <v>0.6277999678867011</v>
       </c>
       <c r="Q7">
-        <v>1.055609183648445</v>
+        <v>5.396163811865556</v>
       </c>
       <c r="R7">
-        <v>9.500482652836</v>
+        <v>48.56547430679</v>
       </c>
       <c r="S7">
-        <v>0.1247661740663417</v>
+        <v>0.525800798563292</v>
       </c>
       <c r="T7">
-        <v>0.1247661740663416</v>
+        <v>0.525800798563292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08042766666666666</v>
+        <v>1.761113666666667</v>
       </c>
       <c r="H8">
-        <v>0.241283</v>
+        <v>5.283341</v>
       </c>
       <c r="I8">
-        <v>0.04236927114099899</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J8">
-        <v>0.04236927114099899</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,90 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7936323333333334</v>
+        <v>0.7772290000000001</v>
       </c>
       <c r="N8">
-        <v>2.380897</v>
+        <v>2.331687</v>
       </c>
       <c r="O8">
-        <v>0.1780604748250411</v>
+        <v>0.1592474724436547</v>
       </c>
       <c r="P8">
-        <v>0.1780604748250411</v>
+        <v>0.1592474724436547</v>
       </c>
       <c r="Q8">
-        <v>0.06382999676122222</v>
+        <v>1.368788614029667</v>
       </c>
       <c r="R8">
-        <v>0.574469970851</v>
+        <v>12.319097526267</v>
       </c>
       <c r="S8">
-        <v>0.00754429253735719</v>
+        <v>0.133374406599477</v>
       </c>
       <c r="T8">
-        <v>0.00754429253735719</v>
+        <v>0.133374406599477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.761113666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.283341</v>
+      </c>
+      <c r="I9">
+        <v>0.8375291899635509</v>
+      </c>
+      <c r="J9">
+        <v>0.8375291899635509</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.08042766666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.241283</v>
-      </c>
-      <c r="I9">
-        <v>0.04236927114099899</v>
-      </c>
-      <c r="J9">
-        <v>0.04236927114099899</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>3.064063333333333</v>
+        <v>0.001271666666666667</v>
       </c>
       <c r="N9">
-        <v>9.19219</v>
+        <v>0.003815</v>
       </c>
       <c r="O9">
-        <v>0.6874575910180047</v>
+        <v>0.0002605534565199114</v>
       </c>
       <c r="P9">
-        <v>0.6874575910180047</v>
+        <v>0.0002605534565199114</v>
       </c>
       <c r="Q9">
-        <v>0.2464354644188889</v>
+        <v>0.002239549546111111</v>
       </c>
       <c r="R9">
-        <v>2.21791917977</v>
+        <v>0.020155945915</v>
       </c>
       <c r="S9">
-        <v>0.02912707707177984</v>
+        <v>0.0002182211253813247</v>
       </c>
       <c r="T9">
-        <v>0.02912707707177984</v>
+        <v>0.0002182211253813247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J10">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.038072333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.114217</v>
+      </c>
+      <c r="O10">
+        <v>0.2126920062131243</v>
+      </c>
+      <c r="P10">
+        <v>0.2126920062131243</v>
+      </c>
+      <c r="Q10">
+        <v>0.2420030348771111</v>
+      </c>
+      <c r="R10">
+        <v>2.178027313894</v>
+      </c>
+      <c r="S10">
+        <v>0.02358071278587336</v>
+      </c>
+      <c r="T10">
+        <v>0.02358071278587336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J11">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.064063333333333</v>
+      </c>
+      <c r="N11">
+        <v>9.19219</v>
+      </c>
+      <c r="O11">
+        <v>0.6277999678867011</v>
+      </c>
+      <c r="P11">
+        <v>0.6277999678867011</v>
+      </c>
+      <c r="Q11">
+        <v>0.7143169140644444</v>
+      </c>
+      <c r="R11">
+        <v>6.428852226579999</v>
+      </c>
+      <c r="S11">
+        <v>0.0696028543493203</v>
+      </c>
+      <c r="T11">
+        <v>0.0696028543493203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J12">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7772290000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.331687</v>
+      </c>
+      <c r="O12">
+        <v>0.1592474724436547</v>
+      </c>
+      <c r="P12">
+        <v>0.1592474724436547</v>
+      </c>
+      <c r="Q12">
+        <v>0.1811933241593333</v>
+      </c>
+      <c r="R12">
+        <v>1.630739917434</v>
+      </c>
+      <c r="S12">
+        <v>0.01765543038701372</v>
+      </c>
+      <c r="T12">
+        <v>0.01765543038701372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J13">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.001271666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.003815</v>
+      </c>
+      <c r="O13">
+        <v>0.0002605534565199114</v>
+      </c>
+      <c r="P13">
+        <v>0.0002605534565199114</v>
+      </c>
+      <c r="Q13">
+        <v>0.0002964602588888889</v>
+      </c>
+      <c r="R13">
+        <v>0.00266814233</v>
+      </c>
+      <c r="S13">
+        <v>2.888701053205568E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.888701053205568E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.151385</v>
+      </c>
+      <c r="I14">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J14">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.038072333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.114217</v>
+      </c>
+      <c r="O14">
+        <v>0.2126920062131243</v>
+      </c>
+      <c r="P14">
+        <v>0.2126920062131243</v>
+      </c>
+      <c r="Q14">
+        <v>0.05238286006055555</v>
+      </c>
+      <c r="R14">
+        <v>0.471445740545</v>
+      </c>
+      <c r="S14">
+        <v>0.005104172262210692</v>
+      </c>
+      <c r="T14">
+        <v>0.005104172262210692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.151385</v>
+      </c>
+      <c r="I15">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J15">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.064063333333333</v>
+      </c>
+      <c r="N15">
+        <v>9.19219</v>
+      </c>
+      <c r="O15">
+        <v>0.6277999678867011</v>
+      </c>
+      <c r="P15">
+        <v>0.6277999678867011</v>
+      </c>
+      <c r="Q15">
+        <v>0.1546177425722222</v>
+      </c>
+      <c r="R15">
+        <v>1.39155968315</v>
+      </c>
+      <c r="S15">
+        <v>0.01506591262810861</v>
+      </c>
+      <c r="T15">
+        <v>0.01506591262810861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.08042766666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.241283</v>
-      </c>
-      <c r="I10">
-        <v>0.04236927114099899</v>
-      </c>
-      <c r="J10">
-        <v>0.04236927114099899</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5993986666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.798196</v>
-      </c>
-      <c r="O10">
-        <v>0.1344819341569541</v>
-      </c>
-      <c r="P10">
-        <v>0.1344819341569541</v>
-      </c>
-      <c r="Q10">
-        <v>0.04820823616311112</v>
-      </c>
-      <c r="R10">
-        <v>0.433874125468</v>
-      </c>
-      <c r="S10">
-        <v>0.005697901531861962</v>
-      </c>
-      <c r="T10">
-        <v>0.005697901531861962</v>
+      <c r="G16">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.151385</v>
+      </c>
+      <c r="I16">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J16">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7772290000000001</v>
+      </c>
+      <c r="N16">
+        <v>2.331687</v>
+      </c>
+      <c r="O16">
+        <v>0.1592474724436547</v>
+      </c>
+      <c r="P16">
+        <v>0.1592474724436547</v>
+      </c>
+      <c r="Q16">
+        <v>0.03922027072166667</v>
+      </c>
+      <c r="R16">
+        <v>0.352982436495</v>
+      </c>
+      <c r="S16">
+        <v>0.003821612979942394</v>
+      </c>
+      <c r="T16">
+        <v>0.003821612979942394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.151385</v>
+      </c>
+      <c r="I17">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J17">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.001271666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.003815</v>
+      </c>
+      <c r="O17">
+        <v>0.0002605534565199114</v>
+      </c>
+      <c r="P17">
+        <v>0.0002605534565199114</v>
+      </c>
+      <c r="Q17">
+        <v>6.417041944444443E-05</v>
+      </c>
+      <c r="R17">
+        <v>0.0005775337749999999</v>
+      </c>
+      <c r="S17">
+        <v>6.252748983238415E-06</v>
+      </c>
+      <c r="T17">
+        <v>6.252748983238415E-06</v>
       </c>
     </row>
   </sheetData>
